--- a/public/assets.xlsx
+++ b/public/assets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoheruwibowo/Documents/Developments/rfid/workspace/htdocs/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekoheruwibowo/Documents/Developments/rfid/workspace/htdocs/public/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E095963-8945-8F4F-8351-1C6641C84A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E793F4-4BF7-0E47-AACA-5BE65C4B3903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{92C77D7E-7D54-A040-8914-6D284680C187}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sap_code</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>parent_code</t>
+  </si>
+  <si>
+    <t>department_id</t>
   </si>
 </sst>
 </file>
@@ -109,9 +112,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +152,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -255,7 +258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,7 +400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B20E6CA-05DC-7C48-81B0-2421448BBCF1}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,6 +434,9 @@
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
